--- a/team_specific_matrix/La Salle_B.xlsx
+++ b/team_specific_matrix/La Salle_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2032520325203252</v>
+        <v>0.2114093959731544</v>
       </c>
       <c r="C2">
-        <v>0.5813008130081301</v>
+        <v>0.5604026845637584</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01626016260162602</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1666666666666667</v>
+        <v>0.1644295302013423</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03252032520325204</v>
+        <v>0.04697986577181208</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01379310344827586</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04137931034482759</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7586206896551724</v>
+        <v>0.7396449704142012</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1862068965517241</v>
+        <v>0.1952662721893491</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07894736842105263</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1842105263157895</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06832298136645963</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006211180124223602</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04347826086956522</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2360248447204969</v>
+        <v>0.2487562189054726</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2049689440993789</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="R6">
-        <v>0.01863354037267081</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="S6">
-        <v>0.422360248447205</v>
+        <v>0.4029850746268657</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1544715447154472</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03252032520325204</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04878048780487805</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1056910569105691</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02439024390243903</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1544715447154472</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="R7">
-        <v>0.08943089430894309</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="S7">
-        <v>0.3902439024390244</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01501501501501501</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04804804804804805</v>
+        <v>0.05528846153846154</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09009009009009009</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01201201201201201</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2132132132132132</v>
+        <v>0.2043269230769231</v>
       </c>
       <c r="R8">
-        <v>0.1021021021021021</v>
+        <v>0.09375</v>
       </c>
       <c r="S8">
-        <v>0.4084084084084084</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0893854748603352</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0446927374301676</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.111731843575419</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01675977653631285</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1955307262569832</v>
+        <v>0.1963470319634703</v>
       </c>
       <c r="R9">
-        <v>0.08379888268156424</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="S9">
-        <v>0.4581005586592179</v>
+        <v>0.4474885844748858</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1109989909182644</v>
+        <v>0.1097256857855362</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02825428859737639</v>
+        <v>0.02660016625103907</v>
       </c>
       <c r="E10">
-        <v>0.001009081735620585</v>
+        <v>0.0008312551953449709</v>
       </c>
       <c r="F10">
-        <v>0.07164480322906155</v>
+        <v>0.0714879467996675</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1301715438950555</v>
+        <v>0.1288445552784705</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02018163471241171</v>
+        <v>0.0199501246882793</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2300706357214934</v>
+        <v>0.229426433915212</v>
       </c>
       <c r="R10">
-        <v>0.06559031281533804</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="S10">
-        <v>0.3420787083753784</v>
+        <v>0.3466334164588529</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1322751322751323</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08465608465608465</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="K11">
-        <v>0.1904761904761905</v>
+        <v>0.1867219917012448</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.5726141078838174</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02116402116402116</v>
+        <v>0.02074688796680498</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2037037037037037</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K12">
-        <v>0.009259259259259259</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03703703703703703</v>
+        <v>0.06428571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01169590643274854</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1461988304093567</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="I15">
-        <v>0.08771929824561403</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="J15">
-        <v>0.4093567251461988</v>
+        <v>0.3899082568807339</v>
       </c>
       <c r="K15">
-        <v>0.04678362573099415</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01169590643274854</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04093567251461988</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2456140350877193</v>
+        <v>0.2568807339449541</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02840909090909091</v>
+        <v>0.025</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1818181818181818</v>
+        <v>0.185</v>
       </c>
       <c r="I16">
-        <v>0.06818181818181818</v>
+        <v>0.065</v>
       </c>
       <c r="J16">
-        <v>0.4261363636363636</v>
+        <v>0.435</v>
       </c>
       <c r="K16">
-        <v>0.1022727272727273</v>
+        <v>0.105</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02272727272727273</v>
+        <v>0.02</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05113636363636364</v>
+        <v>0.045</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1193181818181818</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0078125</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1848958333333333</v>
+        <v>0.189247311827957</v>
       </c>
       <c r="I17">
-        <v>0.125</v>
+        <v>0.1268817204301075</v>
       </c>
       <c r="J17">
-        <v>0.4088541666666667</v>
+        <v>0.3956989247311828</v>
       </c>
       <c r="K17">
-        <v>0.06510416666666667</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01822916666666667</v>
+        <v>0.01505376344086022</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09114583333333333</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09895833333333333</v>
+        <v>0.0989247311827957</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01574803149606299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1889763779527559</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="I18">
-        <v>0.1102362204724409</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="J18">
-        <v>0.4094488188976378</v>
+        <v>0.3987341772151899</v>
       </c>
       <c r="K18">
-        <v>0.06299212598425197</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007874015748031496</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N18">
-        <v>0.007874015748031496</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="O18">
-        <v>0.06299212598425197</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1338582677165354</v>
+        <v>0.120253164556962</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02114164904862579</v>
+        <v>0.02229845626072041</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1923890063424947</v>
+        <v>0.1963979416809606</v>
       </c>
       <c r="I19">
-        <v>0.09408033826638477</v>
+        <v>0.09348198970840481</v>
       </c>
       <c r="J19">
-        <v>0.3826638477801269</v>
+        <v>0.3799313893653516</v>
       </c>
       <c r="K19">
-        <v>0.09936575052854123</v>
+        <v>0.1020583190394511</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01797040169133192</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N19">
-        <v>0.002114164904862579</v>
+        <v>0.001715265866209262</v>
       </c>
       <c r="O19">
-        <v>0.06765327695560254</v>
+        <v>0.06946826758147513</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1226215644820296</v>
+        <v>0.1157804459691252</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/La Salle_B.xlsx
+++ b/team_specific_matrix/La Salle_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2114093959731544</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="C2">
-        <v>0.5604026845637584</v>
+        <v>0.5611285266457681</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01677852348993289</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1644295302013423</v>
+        <v>0.1630094043887147</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04697986577181208</v>
+        <v>0.05015673981191222</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01183431952662722</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05325443786982249</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7396449704142012</v>
+        <v>0.7292817679558011</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1952662721893491</v>
+        <v>0.2099447513812155</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05472636815920398</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009950248756218905</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04477611940298507</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2487562189054726</v>
+        <v>0.2420091324200913</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01492537313432836</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1890547263681592</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R6">
-        <v>0.03482587064676617</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="S6">
-        <v>0.4029850746268657</v>
+        <v>0.3972602739726027</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1644736842105263</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02631578947368421</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03947368421052631</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1052631578947368</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03289473684210526</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1644736842105263</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R7">
-        <v>0.09868421052631579</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S7">
-        <v>0.3684210526315789</v>
+        <v>0.3511904761904762</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1057692307692308</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01442307692307692</v>
+        <v>0.01279317697228145</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05528846153846154</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0889423076923077</v>
+        <v>0.09381663113006397</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01442307692307692</v>
+        <v>0.01279317697228145</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2043269230769231</v>
+        <v>0.2025586353944563</v>
       </c>
       <c r="R8">
-        <v>0.09375</v>
+        <v>0.09168443496801706</v>
       </c>
       <c r="S8">
-        <v>0.4230769230769231</v>
+        <v>0.4200426439232409</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0867579908675799</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0502283105022831</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1141552511415525</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0228310502283105</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1963470319634703</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="R9">
-        <v>0.0821917808219178</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="S9">
-        <v>0.4474885844748858</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1097256857855362</v>
+        <v>0.1043872919818457</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02660016625103907</v>
+        <v>0.02723146747352496</v>
       </c>
       <c r="E10">
-        <v>0.0008312551953449709</v>
+        <v>0.0007564296520423601</v>
       </c>
       <c r="F10">
-        <v>0.0714879467996675</v>
+        <v>0.06732223903177005</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1288445552784705</v>
+        <v>0.1293494704992436</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0199501246882793</v>
+        <v>0.02118003025718608</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.229426433915212</v>
+        <v>0.2284417549167927</v>
       </c>
       <c r="R10">
-        <v>0.06650041562759768</v>
+        <v>0.06959152798789713</v>
       </c>
       <c r="S10">
-        <v>0.3466334164588529</v>
+        <v>0.3517397881996974</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1369294605809129</v>
+        <v>0.1434108527131783</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08298755186721991</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="K11">
-        <v>0.1867219917012448</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="L11">
-        <v>0.5726141078838174</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02074688796680498</v>
+        <v>0.01937984496124031</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.7181208053691275</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1785714285714286</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="K12">
-        <v>0.007142857142857143</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06428571428571428</v>
+        <v>0.06040268456375839</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02293577981651376</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1605504587155963</v>
+        <v>0.1611570247933884</v>
       </c>
       <c r="I15">
-        <v>0.08256880733944955</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="J15">
-        <v>0.3899082568807339</v>
+        <v>0.3884297520661157</v>
       </c>
       <c r="K15">
-        <v>0.03669724770642202</v>
+        <v>0.0371900826446281</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009174311926605505</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04128440366972477</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2568807339449541</v>
+        <v>0.2644628099173554</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.025</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.185</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I16">
-        <v>0.065</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="J16">
-        <v>0.435</v>
+        <v>0.4245283018867925</v>
       </c>
       <c r="K16">
-        <v>0.105</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.045</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1226415094339623</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01290322580645161</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.189247311827957</v>
+        <v>0.1853281853281853</v>
       </c>
       <c r="I17">
-        <v>0.1268817204301075</v>
+        <v>0.1254826254826255</v>
       </c>
       <c r="J17">
-        <v>0.3956989247311828</v>
+        <v>0.4015444015444015</v>
       </c>
       <c r="K17">
-        <v>0.07526881720430108</v>
+        <v>0.07335907335907337</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01505376344086022</v>
+        <v>0.01737451737451737</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08602150537634409</v>
+        <v>0.08494208494208494</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0989247311827957</v>
+        <v>0.1003861003861004</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01265822784810127</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1835443037974684</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="I18">
-        <v>0.120253164556962</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="J18">
-        <v>0.3987341772151899</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="K18">
-        <v>0.08227848101265822</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01265822784810127</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N18">
-        <v>0.006329113924050633</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="O18">
-        <v>0.06329113924050633</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.120253164556962</v>
+        <v>0.1123595505617977</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02229845626072041</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1963979416809606</v>
+        <v>0.2030888030888031</v>
       </c>
       <c r="I19">
-        <v>0.09348198970840481</v>
+        <v>0.09575289575289575</v>
       </c>
       <c r="J19">
-        <v>0.3799313893653516</v>
+        <v>0.3752895752895753</v>
       </c>
       <c r="K19">
-        <v>0.1020583190394511</v>
+        <v>0.09575289575289575</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01886792452830189</v>
+        <v>0.02007722007722008</v>
       </c>
       <c r="N19">
-        <v>0.001715265866209262</v>
+        <v>0.001544401544401544</v>
       </c>
       <c r="O19">
-        <v>0.06946826758147513</v>
+        <v>0.06872586872586872</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1157804459691252</v>
+        <v>0.1181467181467181</v>
       </c>
     </row>
   </sheetData>
